--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>2022-03-27</t>
+    <t>2022-03-28</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>2022-03-28</t>
+    <t>2022-03-30</t>
   </si>
   <si>
     <t>PASSED</t>
